--- a/frontend/web/uploads/excel/vacancy.xlsx
+++ b/frontend/web/uploads/excel/vacancy.xlsx
@@ -264,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -301,13 +301,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -321,25 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -399,8 +375,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -421,19 +420,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,6 +441,168 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -450,91 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,85 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,32 +649,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +725,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -759,69 +748,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1151,8 +1151,8 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>

--- a/frontend/web/uploads/excel/vacancy.xlsx
+++ b/frontend/web/uploads/excel/vacancy.xlsx
@@ -264,14 +264,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
@@ -314,11 +322,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -350,13 +358,6 @@
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="204"/>
-      <scheme val="major"/>
     </font>
     <font>
       <i/>
@@ -434,6 +435,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -441,6 +449,156 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -450,55 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,115 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,6 +661,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,21 +696,6 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,74 +770,74 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,20 +1159,20 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="7.57272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="43.4545454545455" customWidth="1"/>
+    <col min="4" max="4" width="21.4545454545455" customWidth="1"/>
     <col min="5" max="5" width="23.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="14.4272727272727" customWidth="1"/>
-    <col min="7" max="7" width="14.1363636363636" customWidth="1"/>
-    <col min="8" max="8" width="11.5727272727273" customWidth="1"/>
+    <col min="6" max="6" width="22.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="24.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="14.8181818181818" customWidth="1"/>
     <col min="9" max="9" width="10.7090909090909" customWidth="1"/>
     <col min="10" max="10" width="16.7090909090909" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
@@ -1175,7 +1183,7 @@
     <col min="16" max="16" width="24.5727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" ht="18.5" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/frontend/web/uploads/excel/vacancy.xlsx
+++ b/frontend/web/uploads/excel/vacancy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="82">
   <si>
     <t>company_id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>To'liq stavka</t>
+  </si>
+  <si>
+    <t>1 to 3 years</t>
   </si>
   <si>
     <t>https://t.me/username123</t>
@@ -264,10 +267,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -309,24 +312,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="204"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -355,6 +351,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -435,13 +445,6 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -449,6 +452,150 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -464,43 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,121 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,21 +664,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -696,6 +684,21 @@
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,72 +773,73 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
@@ -1159,8 +1163,8 @@
   <sheetPr/>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1273,11 +1277,11 @@
       <c r="M2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>21</v>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="P2" t="str">
         <f t="shared" ref="P2:P40" si="0">CONCATENATE(I2," Ko'chasi, ",K2,"-uy")</f>
@@ -1286,25 +1290,25 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1321,11 +1325,11 @@
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>26</v>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="P3" t="str">
         <f t="shared" si="0"/>
@@ -1334,10 +1338,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1369,11 +1373,11 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>29</v>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="P4" t="str">
         <f t="shared" si="0"/>
@@ -1382,25 +1386,25 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>4</v>
@@ -1417,11 +1421,11 @@
       <c r="M5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>32</v>
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="P5" t="str">
         <f t="shared" si="0"/>
@@ -1430,10 +1434,10 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1465,11 +1469,11 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>35</v>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" si="0"/>
@@ -1478,25 +1482,25 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>6</v>
@@ -1513,11 +1517,11 @@
       <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>38</v>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
@@ -1526,10 +1530,10 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -1561,11 +1565,11 @@
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>41</v>
+      <c r="N8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
@@ -1577,22 +1581,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9">
         <v>8</v>
@@ -1609,11 +1613,11 @@
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>43</v>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
@@ -1622,10 +1626,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1657,11 +1661,11 @@
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10">
-        <v>3</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>45</v>
+      <c r="N10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
@@ -1670,25 +1674,25 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11">
         <v>10</v>
@@ -1705,11 +1709,11 @@
       <c r="M11">
         <v>2</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>47</v>
+      <c r="N11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="0"/>
@@ -1718,10 +1722,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>18</v>
@@ -1753,11 +1757,11 @@
       <c r="M12">
         <v>3</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>49</v>
+      <c r="N12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
@@ -1766,25 +1770,25 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -1801,11 +1805,11 @@
       <c r="M13">
         <v>3</v>
       </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>51</v>
+      <c r="N13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="0"/>
@@ -1814,10 +1818,10 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>18</v>
@@ -1849,11 +1853,11 @@
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>53</v>
+      <c r="N14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
@@ -1862,25 +1866,25 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15">
         <v>14</v>
@@ -1897,11 +1901,11 @@
       <c r="M15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>55</v>
+      <c r="N15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="0"/>
@@ -1945,11 +1949,11 @@
       <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>56</v>
+      <c r="N16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
@@ -1958,25 +1962,25 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1993,11 +1997,11 @@
       <c r="M17">
         <v>3</v>
       </c>
-      <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>57</v>
+      <c r="N17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="0"/>
@@ -2006,10 +2010,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>18</v>
@@ -2041,11 +2045,11 @@
       <c r="M18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>58</v>
+      <c r="N18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" si="0"/>
@@ -2054,25 +2058,25 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2089,11 +2093,11 @@
       <c r="M19">
         <v>3</v>
       </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>59</v>
+      <c r="N19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="P19" t="str">
         <f t="shared" si="0"/>
@@ -2102,10 +2106,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>18</v>
@@ -2137,11 +2141,11 @@
       <c r="M20">
         <v>3</v>
       </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>60</v>
+      <c r="N20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="0"/>
@@ -2150,25 +2154,25 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21">
         <v>6</v>
@@ -2185,11 +2189,11 @@
       <c r="M21">
         <v>2</v>
       </c>
-      <c r="N21">
-        <v>4</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>61</v>
+      <c r="N21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="0"/>
@@ -2198,10 +2202,10 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -2233,11 +2237,11 @@
       <c r="M22">
         <v>3</v>
       </c>
-      <c r="N22">
-        <v>5</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>62</v>
+      <c r="N22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="0"/>
@@ -2249,22 +2253,22 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -2281,11 +2285,11 @@
       <c r="M23">
         <v>3</v>
       </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>63</v>
+      <c r="N23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="P23" t="str">
         <f t="shared" si="0"/>
@@ -2294,10 +2298,10 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>18</v>
@@ -2329,11 +2333,11 @@
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>64</v>
+      <c r="N24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" si="0"/>
@@ -2342,25 +2346,25 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -2377,11 +2381,11 @@
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>65</v>
+      <c r="N25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="P25" t="str">
         <f t="shared" si="0"/>
@@ -2390,10 +2394,10 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
@@ -2425,11 +2429,11 @@
       <c r="M26">
         <v>3</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>66</v>
+      <c r="N26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="P26" t="str">
         <f t="shared" si="0"/>
@@ -2438,25 +2442,25 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -2473,11 +2477,11 @@
       <c r="M27">
         <v>2</v>
       </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>67</v>
+      <c r="N27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="P27" t="str">
         <f t="shared" si="0"/>
@@ -2486,10 +2490,10 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>18</v>
@@ -2521,11 +2525,11 @@
       <c r="M28">
         <v>2</v>
       </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>68</v>
+      <c r="N28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="0"/>
@@ -2534,25 +2538,25 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29">
         <v>14</v>
@@ -2569,11 +2573,11 @@
       <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29">
-        <v>4</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>69</v>
+      <c r="N29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="P29" t="str">
         <f t="shared" si="0"/>
@@ -2617,11 +2621,11 @@
       <c r="M30">
         <v>2</v>
       </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>70</v>
+      <c r="N30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" si="0"/>
@@ -2630,25 +2634,25 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2665,11 +2669,11 @@
       <c r="M31">
         <v>3</v>
       </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>71</v>
+      <c r="N31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="P31" t="str">
         <f t="shared" si="0"/>
@@ -2678,10 +2682,10 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>18</v>
@@ -2713,11 +2717,11 @@
       <c r="M32">
         <v>2</v>
       </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>72</v>
+      <c r="N32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="P32" t="str">
         <f t="shared" si="0"/>
@@ -2726,25 +2730,25 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -2761,11 +2765,11 @@
       <c r="M33">
         <v>3</v>
       </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>73</v>
+      <c r="N33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="P33" t="str">
         <f t="shared" si="0"/>
@@ -2774,10 +2778,10 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>18</v>
@@ -2809,11 +2813,11 @@
       <c r="M34">
         <v>3</v>
       </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>74</v>
+      <c r="N34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="P34" t="str">
         <f t="shared" si="0"/>
@@ -2822,25 +2826,25 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35">
         <v>6</v>
@@ -2857,11 +2861,11 @@
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35">
-        <v>4</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>75</v>
+      <c r="N35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="P35" t="str">
         <f t="shared" si="0"/>
@@ -2870,10 +2874,10 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>18</v>
@@ -2905,11 +2909,11 @@
       <c r="M36">
         <v>3</v>
       </c>
-      <c r="N36">
-        <v>5</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>76</v>
+      <c r="N36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" si="0"/>
@@ -2921,22 +2925,22 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -2953,11 +2957,11 @@
       <c r="M37">
         <v>2</v>
       </c>
-      <c r="N37">
-        <v>2</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>77</v>
+      <c r="N37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="P37" t="str">
         <f t="shared" si="0"/>
@@ -2966,10 +2970,10 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>18</v>
@@ -3001,11 +3005,11 @@
       <c r="M38">
         <v>2</v>
       </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>78</v>
+      <c r="N38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="P38" t="str">
         <f t="shared" si="0"/>
@@ -3014,25 +3018,25 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39">
         <v>10</v>
@@ -3049,11 +3053,11 @@
       <c r="M39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>79</v>
+      <c r="N39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="P39" t="str">
         <f t="shared" si="0"/>
@@ -3062,10 +3066,10 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>18</v>
@@ -3097,11 +3101,11 @@
       <c r="M40">
         <v>2</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>80</v>
+      <c r="N40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="P40" t="str">
         <f t="shared" si="0"/>
